--- a/Data/Processed/Angiosperms/missing_powo_ipni/Violaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Violaceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4227,7 +4227,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -15755,7 +15755,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -15765,7 +15765,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 52(Mém. 3[a]): 22. 1905 </t>
+          <t>Bull. Soc. Bot. France 52(Mém. 3[a]): 22. 1905</t>
         </is>
       </c>
       <c r="J276" t="b">
